--- a/NEW/B-MF 2023-10-15/XGB.xlsx
+++ b/NEW/B-MF 2023-10-15/XGB.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\Documents\GitHub\SMILE_to_Feature\NEW\B-MF 2023-10-15\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kan\Documents\GitHub\SMILE_to_Feature\NEW\B-MF 2023-10-15\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{089103C9-CC5D-4C98-99AA-3CD225F369C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C56D327C-ECC6-471D-B278-7E19C89C62FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="XGB" sheetId="1" r:id="rId1"/>
@@ -628,15 +628,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC6E0B4"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill>
@@ -972,10 +964,10 @@
   <dimension ref="A1:H92"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E65" sqref="E65"/>
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" t="s">
@@ -1078,27 +1070,27 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8" hidden="1">
+    <row r="5" spans="1:8">
       <c r="A5">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B5">
-        <v>4.2739334133693099</v>
+        <v>8.2120642076219799</v>
       </c>
       <c r="C5">
-        <v>1.3224019479061999</v>
+        <v>2.5150751528957902</v>
       </c>
       <c r="D5">
-        <v>7.8673902735975396</v>
+        <v>13.7519355862098</v>
       </c>
       <c r="E5">
-        <v>0.98260612646790202</v>
+        <v>0.94685497962041698</v>
       </c>
       <c r="F5" t="s">
         <v>18</v>
       </c>
       <c r="G5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H5" t="s">
         <v>9</v>
@@ -1130,27 +1122,27 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:8" hidden="1">
+    <row r="7" spans="1:8">
       <c r="A7">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="B7">
-        <v>5.5428595706394699</v>
+        <v>20.967260714939599</v>
       </c>
       <c r="C7">
-        <v>1.6897502142499801</v>
+        <v>5.7004677774204602</v>
       </c>
       <c r="D7">
-        <v>9.5652466622593995</v>
+        <v>28.096012487485101</v>
       </c>
       <c r="E7">
-        <v>0.97428850872318595</v>
+        <v>0.75979407897992901</v>
       </c>
       <c r="F7" t="s">
         <v>18</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="H7" t="s">
         <v>9</v>
@@ -1234,79 +1226,79 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:8" hidden="1">
+    <row r="11" spans="1:8">
       <c r="A11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B11">
-        <v>7.1894669491904004</v>
+        <v>10.7631035090855</v>
       </c>
       <c r="C11">
-        <v>2.1843954933530201</v>
+        <v>3.1521536778007202</v>
       </c>
       <c r="D11">
-        <v>11.9573885888598</v>
+        <v>17.583224090967899</v>
       </c>
       <c r="E11">
-        <v>0.95982021530861406</v>
+        <v>0.91176904264933301</v>
       </c>
       <c r="F11" t="s">
         <v>18</v>
       </c>
       <c r="G11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:8" hidden="1">
+    <row r="12" spans="1:8">
       <c r="A12">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B12">
-        <v>8.0571241073608295</v>
+        <v>7.1894669491904004</v>
       </c>
       <c r="C12">
-        <v>2.2657715443896098</v>
+        <v>2.1843954933530201</v>
       </c>
       <c r="D12">
-        <v>15.288060372741899</v>
+        <v>11.9573885888598</v>
       </c>
       <c r="E12">
-        <v>0.933299552499542</v>
+        <v>0.95982021530861406</v>
       </c>
       <c r="F12" t="s">
         <v>18</v>
       </c>
       <c r="G12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:8" hidden="1">
+    <row r="13" spans="1:8">
       <c r="A13">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="B13">
-        <v>8.1247208213806097</v>
+        <v>20.979666927882501</v>
       </c>
       <c r="C13">
-        <v>2.43462614079897</v>
+        <v>5.6727747200455596</v>
       </c>
       <c r="D13">
-        <v>13.202344957237599</v>
+        <v>27.879423467589</v>
       </c>
       <c r="E13">
-        <v>0.95101793716923999</v>
+        <v>0.763483245466133</v>
       </c>
       <c r="F13" t="s">
         <v>18</v>
       </c>
       <c r="G13" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H13" t="s">
         <v>9</v>
@@ -1338,27 +1330,27 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:8" hidden="1">
+    <row r="15" spans="1:8">
       <c r="A15">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B15">
-        <v>8.2120642076219799</v>
+        <v>9.9475069449288398</v>
       </c>
       <c r="C15">
-        <v>2.5150751528957902</v>
+        <v>2.8820713386915302</v>
       </c>
       <c r="D15">
-        <v>13.7519355862098</v>
+        <v>16.426678424715899</v>
       </c>
       <c r="E15">
-        <v>0.94685497962041698</v>
+        <v>0.92299419236587599</v>
       </c>
       <c r="F15" t="s">
         <v>18</v>
       </c>
       <c r="G15" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H15" t="s">
         <v>9</v>
@@ -1390,27 +1382,27 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:8" hidden="1">
+    <row r="17" spans="1:8">
       <c r="A17">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B17">
-        <v>8.7717948281424292</v>
+        <v>4.2739334133693099</v>
       </c>
       <c r="C17">
-        <v>2.4930404684744998</v>
+        <v>1.3224019479061999</v>
       </c>
       <c r="D17">
-        <v>15.3197766953277</v>
+        <v>7.8673902735975396</v>
       </c>
       <c r="E17">
-        <v>0.93302251443993001</v>
+        <v>0.98260612646790202</v>
       </c>
       <c r="F17" t="s">
         <v>18</v>
       </c>
       <c r="G17" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H17" t="s">
         <v>9</v>
@@ -1546,27 +1538,27 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:8" hidden="1">
+    <row r="23" spans="1:8">
       <c r="A23">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B23">
-        <v>9.9475069449288398</v>
+        <v>23.189886883326899</v>
       </c>
       <c r="C23">
-        <v>2.8820713386915302</v>
+        <v>6.0392499303232698</v>
       </c>
       <c r="D23">
-        <v>16.426678424715899</v>
+        <v>30.348651221011899</v>
       </c>
       <c r="E23">
-        <v>0.92299419236587599</v>
+        <v>0.71973225251339801</v>
       </c>
       <c r="F23" t="s">
         <v>18</v>
       </c>
       <c r="G23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H23" t="s">
         <v>9</v>
@@ -1676,53 +1668,53 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:8" hidden="1">
+    <row r="28" spans="1:8">
       <c r="A28">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B28">
-        <v>10.7631035090855</v>
+        <v>8.0571241073608295</v>
       </c>
       <c r="C28">
-        <v>3.1521536778007202</v>
+        <v>2.2657715443896098</v>
       </c>
       <c r="D28">
-        <v>17.583224090967899</v>
+        <v>15.288060372741899</v>
       </c>
       <c r="E28">
-        <v>0.91176904264933301</v>
+        <v>0.933299552499542</v>
       </c>
       <c r="F28" t="s">
         <v>18</v>
       </c>
       <c r="G28" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H28" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:8" hidden="1">
+    <row r="29" spans="1:8">
       <c r="A29">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B29">
-        <v>10.9591636407034</v>
+        <v>11.575479959760299</v>
       </c>
       <c r="C29">
-        <v>3.1498944493798202</v>
+        <v>3.4561964969519501</v>
       </c>
       <c r="D29">
-        <v>17.839949092238399</v>
+        <v>17.522252172895399</v>
       </c>
       <c r="E29">
-        <v>0.90917379027788103</v>
+        <v>0.91371907916589701</v>
       </c>
       <c r="F29" t="s">
         <v>18</v>
       </c>
       <c r="G29" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H29" t="s">
         <v>9</v>
@@ -1806,21 +1798,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:8" hidden="1">
+    <row r="33" spans="1:8">
       <c r="A33">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B33">
-        <v>11.575479959760299</v>
+        <v>21.903655297415501</v>
       </c>
       <c r="C33">
-        <v>3.4561964969519501</v>
+        <v>6.0738059066355996</v>
       </c>
       <c r="D33">
-        <v>17.522252172895399</v>
+        <v>29.4731705044241</v>
       </c>
       <c r="E33">
-        <v>0.91371907916589701</v>
+        <v>0.73566903161392205</v>
       </c>
       <c r="F33" t="s">
         <v>18</v>
@@ -2118,7 +2110,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:8" hidden="1">
+    <row r="45" spans="1:8">
       <c r="A45">
         <v>84</v>
       </c>
@@ -2456,7 +2448,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" hidden="1">
       <c r="A58">
         <v>38</v>
       </c>
@@ -2508,7 +2500,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" hidden="1">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2536,25 +2528,25 @@
     </row>
     <row r="61" spans="1:8">
       <c r="A61">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="B61">
-        <v>20.967260714939599</v>
+        <v>5.5428595706394699</v>
       </c>
       <c r="C61">
-        <v>5.7004677774204602</v>
+        <v>1.6897502142499801</v>
       </c>
       <c r="D61">
-        <v>28.096012487485101</v>
+        <v>9.5652466622593995</v>
       </c>
       <c r="E61">
-        <v>0.75979407897992901</v>
+        <v>0.97428850872318595</v>
       </c>
       <c r="F61" t="s">
         <v>18</v>
       </c>
       <c r="G61" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="H61" t="s">
         <v>9</v>
@@ -2562,25 +2554,25 @@
     </row>
     <row r="62" spans="1:8">
       <c r="A62">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="B62">
-        <v>20.979666927882501</v>
+        <v>21.687535858154199</v>
       </c>
       <c r="C62">
-        <v>5.6727747200455596</v>
+        <v>5.7062014853725698</v>
       </c>
       <c r="D62">
-        <v>27.879423467589</v>
+        <v>28.416579933800602</v>
       </c>
       <c r="E62">
-        <v>0.763483245466133</v>
+        <v>0.75428144723337098</v>
       </c>
       <c r="F62" t="s">
         <v>18</v>
       </c>
       <c r="G62" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H62" t="s">
         <v>9</v>
@@ -2612,7 +2604,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" hidden="1">
       <c r="A64">
         <v>68</v>
       </c>
@@ -2638,7 +2630,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" hidden="1">
       <c r="A65">
         <v>71</v>
       </c>
@@ -2664,7 +2656,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" hidden="1">
       <c r="A66">
         <v>56</v>
       </c>
@@ -2692,19 +2684,19 @@
     </row>
     <row r="67" spans="1:8">
       <c r="A67">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B67">
-        <v>21.687535858154199</v>
+        <v>8.7717948281424292</v>
       </c>
       <c r="C67">
-        <v>5.7062014853725698</v>
+        <v>2.4930404684744998</v>
       </c>
       <c r="D67">
-        <v>28.416579933800602</v>
+        <v>15.3197766953277</v>
       </c>
       <c r="E67">
-        <v>0.75428144723337098</v>
+        <v>0.93302251443993001</v>
       </c>
       <c r="F67" t="s">
         <v>18</v>
@@ -2716,7 +2708,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" hidden="1">
       <c r="A68">
         <v>41</v>
       </c>
@@ -2744,25 +2736,25 @@
     </row>
     <row r="69" spans="1:8">
       <c r="A69">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B69">
-        <v>21.903655297415501</v>
+        <v>8.1247208213806097</v>
       </c>
       <c r="C69">
-        <v>6.0738059066355996</v>
+        <v>2.43462614079897</v>
       </c>
       <c r="D69">
-        <v>29.4731705044241</v>
+        <v>13.202344957237599</v>
       </c>
       <c r="E69">
-        <v>0.73566903161392205</v>
+        <v>0.95101793716923999</v>
       </c>
       <c r="F69" t="s">
         <v>18</v>
       </c>
       <c r="G69" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H69" t="s">
         <v>9</v>
@@ -2794,7 +2786,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" hidden="1">
       <c r="A71">
         <v>53</v>
       </c>
@@ -2820,7 +2812,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" hidden="1">
       <c r="A72">
         <v>50</v>
       </c>
@@ -2846,7 +2838,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" hidden="1">
       <c r="A73">
         <v>20</v>
       </c>
@@ -2872,7 +2864,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" hidden="1">
       <c r="A74">
         <v>35</v>
       </c>
@@ -2924,7 +2916,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:8" hidden="1">
       <c r="A76">
         <v>47</v>
       </c>
@@ -2950,7 +2942,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" hidden="1">
       <c r="A77">
         <v>32</v>
       </c>
@@ -2976,7 +2968,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:8" hidden="1">
       <c r="A78">
         <v>65</v>
       </c>
@@ -3002,7 +2994,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:8" hidden="1">
       <c r="A79">
         <v>23</v>
       </c>
@@ -3028,7 +3020,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:8" hidden="1">
       <c r="A80">
         <v>44</v>
       </c>
@@ -3054,7 +3046,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" hidden="1">
       <c r="A81">
         <v>29</v>
       </c>
@@ -3082,31 +3074,31 @@
     </row>
     <row r="82" spans="1:8">
       <c r="A82">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="B82">
-        <v>23.189886883326899</v>
+        <v>10.9591636407034</v>
       </c>
       <c r="C82">
-        <v>6.0392499303232698</v>
+        <v>3.1498944493798202</v>
       </c>
       <c r="D82">
-        <v>30.348651221011899</v>
+        <v>17.839949092238399</v>
       </c>
       <c r="E82">
-        <v>0.71973225251339801</v>
+        <v>0.90917379027788103</v>
       </c>
       <c r="F82" t="s">
         <v>18</v>
       </c>
       <c r="G82" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H82" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:8" hidden="1">
       <c r="A83">
         <v>26</v>
       </c>
@@ -3132,7 +3124,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" hidden="1">
       <c r="A84">
         <v>62</v>
       </c>
@@ -3210,7 +3202,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:8" hidden="1">
       <c r="A87">
         <v>11</v>
       </c>
@@ -3236,7 +3228,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" hidden="1">
       <c r="A88">
         <v>17</v>
       </c>
@@ -3262,7 +3254,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:8" hidden="1">
       <c r="A89">
         <v>5</v>
       </c>
@@ -3288,7 +3280,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:8" hidden="1">
       <c r="A90">
         <v>14</v>
       </c>
@@ -3314,7 +3306,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" hidden="1">
       <c r="A91">
         <v>8</v>
       </c>
@@ -3340,7 +3332,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:8" hidden="1">
       <c r="A92">
         <v>2</v>
       </c>
@@ -3368,21 +3360,23 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:H92" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="0">
-      <colorFilter dxfId="0"/>
+    <filterColumn colId="5">
+      <filters>
+        <filter val="r= 6"/>
+      </filters>
     </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H92">
-      <sortCondition ref="B1:B92"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:H82">
+      <sortCondition ref="A1:A92"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>MOD(A1,3)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>MOD(A1,3)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="3">
+    <cfRule type="expression" dxfId="0" priority="3">
       <formula>MOD(A1,3)=2</formula>
     </cfRule>
   </conditionalFormatting>
